--- a/biology/Botanique/Deutzia_scabra/Deutzia_scabra.xlsx
+++ b/biology/Botanique/Deutzia_scabra/Deutzia_scabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deutzia scabra est une plante ornementale de la famille des Hydrangéacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Japon, elle a été introduite en Asie orientale, en Europe et en Amérique du Nord[4],[5]. Dans son aire d'origine on la trouve dans le Kantō à l'est des îles de Kyushu et de Shikoku[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Japon, elle a été introduite en Asie orientale, en Europe et en Amérique du Nord,. Dans son aire d'origine on la trouve dans le Kantō à l'est des îles de Kyushu et de Shikoku.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat naturel se situe en lisière des forêts et dans les espaces ouverts rocailleux[7]. Elle est tolérante aux changements et on peut la voir pousser sur les murs de pierre, les talus et les terrains vagues[8],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel se situe en lisière des forêts et dans les espaces ouverts rocailleux. Elle est tolérante aux changements et on peut la voir pousser sur les murs de pierre, les talus et les terrains vagues,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (27 juin 2020)[9] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Deutzia scabra var. atropurpurea
 Deutzia scabra var. crenata Maxim.
 Deutzia scabra var. latifolia Zaik.
